--- a/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eron Bruce\Desktop\tcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Origem</t>
   </si>
@@ -44,30 +44,6 @@
     <t>C5</t>
   </si>
   <si>
-    <t>SSS-0001 O sistema DEVE receber a solicitação de serviço</t>
-  </si>
-  <si>
-    <t>SSS-0002 O sistema DEVE armazenar os dados do cliente e veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0003 O sistema DEVE fornecer orçamento ao cliente </t>
-  </si>
-  <si>
-    <t>SSS-0002 O sistema DEVE permitir que o Cliente acompanhe as situações de status de seu veículo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0005 O sistema DEVE informar ao estoquista o material  existente </t>
-  </si>
-  <si>
-    <t>SSS-0006 O sistema DEVE informar ao estoquista os materiais inexistente</t>
-  </si>
-  <si>
-    <t>SSS-0008 O sistema DEVE registrar entrada de lucros e despesas da oficina</t>
-  </si>
-  <si>
-    <t>SSS-0009 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -83,9 +59,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>SSS-0004 O sistema DEVE permitir que o estoquista registre o material</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
@@ -140,9 +113,6 @@
     <t>1º e 2º processos do DFD Comprar Material</t>
   </si>
   <si>
-    <t>SSS-0007 O sistema DEVE informar ao avaliador o cálculo de material para o serviço</t>
-  </si>
-  <si>
     <t>4º processo do DFD Avaliar o serviço que deve ser realizado</t>
   </si>
   <si>
@@ -158,10 +128,79 @@
     <t>SSS-0011 O sistema DEVE oferecer ao supervisor a opção de consulta do controle de ponto dos funcionários</t>
   </si>
   <si>
-    <t>SSS-0012 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação</t>
-  </si>
-  <si>
     <t>* Na lista de necessidade que o cliente solicita? Na declaração do problema? Não há processo para encaixar este requisito, devo cria-lá? (mas funcionários não entraria em uma entidade externa no artefato 15, e sim interna da oficina (tentar tirar está dúvida) "caso contrário ter fé pra que seja algumas que citei"</t>
+  </si>
+  <si>
+    <t>SSS-001  O sistema DEVE receber a solicitação de serviço</t>
+  </si>
+  <si>
+    <t>SSS-002 O sistema DEVE armazenar os dados do cliente e veículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-003 O sistema DEVE fornecer orçamento ao cliente </t>
+  </si>
+  <si>
+    <t>SSS-002 O sistema DEVE permitir que o Cliente acompanhe as situações de status de seu veículo</t>
+  </si>
+  <si>
+    <t>SSS-004 O sistema DEVE permitir que o estoquista registre o material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-005 O sistema DEVE informar ao estoquista o material  existente </t>
+  </si>
+  <si>
+    <t>SSS-006 O sistema DEVE informar ao estoquista os materiais inexistente</t>
+  </si>
+  <si>
+    <t>SSS-007 O sistema DEVE informar ao avaliador o cálculo de material para o serviço</t>
+  </si>
+  <si>
+    <t>SSS-008 O sistema DEVE registrar entrada de lucros e despesas da oficina</t>
+  </si>
+  <si>
+    <t>SSS-009 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas</t>
+  </si>
+  <si>
+    <t>SSS-0013 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos finalizados</t>
+  </si>
+  <si>
+    <t>SSS-0014 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos pendentes</t>
+  </si>
+  <si>
+    <t>SSS-0015 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento</t>
+  </si>
+  <si>
+    <t>SSS-0016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais propriedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0017 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior saída </t>
+  </si>
+  <si>
+    <t>SSS-0021 O sistema DEVE registrar nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0020 O sistema DEVE informar se o cliente já consta no banco de dados, se solicitou algum  serviço </t>
+  </si>
+  <si>
+    <t>SSS-0012 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0023 O sistema DEVE calcular o prazo de conserto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0022 O sistema DEVE gerar os lucros e depesas de fechamento de cada mês </t>
+  </si>
+  <si>
+    <t>SSS-0019 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem menos saída </t>
+  </si>
+  <si>
+    <t>SSS-0024 ..</t>
+  </si>
+  <si>
+    <t>SSS-0025 ..</t>
   </si>
 </sst>
 </file>
@@ -294,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -302,14 +341,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -323,23 +365,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,52 +664,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" customWidth="1"/>
-    <col min="2" max="2" width="108.7109375" customWidth="1"/>
+    <col min="2" max="2" width="127.42578125" customWidth="1"/>
     <col min="3" max="22" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,67 +726,67 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -753,44 +796,44 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -799,38 +842,38 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
+      <c r="A5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -839,33 +882,33 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
+      <c r="A6" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -882,27 +925,27 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
+      <c r="A7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -911,7 +954,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -923,20 +966,20 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -945,10 +988,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -959,22 +1002,22 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
+      <c r="A9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -983,10 +1026,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -997,63 +1040,63 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>39</v>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1067,10 +1110,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1078,16 +1121,16 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1101,10 +1144,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1112,21 +1155,21 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1135,7 +1178,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1146,19 +1189,19 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>43</v>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1167,10 +1210,10 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1180,75 +1223,468 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="14"/>
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="5"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
+  <mergeCells count="30">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="T15:T16"/>
@@ -1264,15 +1700,11 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
     <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>Origem</t>
   </si>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">SSS-0018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem menos saída </t>
   </si>
   <si>
-    <t>SSS-0024 ..</t>
-  </si>
-  <si>
-    <t>SSS-0025 ..</t>
+    <t>SSS-0024 O sistema DEVE gerar um acesso exclusivo para cada cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0025 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos </t>
   </si>
 </sst>
 </file>
@@ -347,17 +347,24 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -371,18 +378,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,38 +678,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -974,7 +974,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1194,7 +1194,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1230,451 +1230,469 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
+      <c r="C27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -1691,20 +1709,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>Origem</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t xml:space="preserve">SSS-0025 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -348,6 +351,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -377,12 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,38 +681,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -814,7 +817,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
@@ -876,7 +879,9 @@
         <v>21</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -938,7 +943,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -974,7 +979,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1097,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1128,7 +1133,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1160,7 +1165,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1194,7 +1199,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1230,63 +1235,63 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="16"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1318,7 +1323,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1348,7 +1353,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1376,7 +1381,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
@@ -1410,7 +1415,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1444,7 +1449,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1478,7 +1483,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1508,7 +1513,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1541,7 @@
       <c r="V24" s="5"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
@@ -1566,7 +1571,7 @@
       <c r="V25" s="5"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1594,7 +1599,7 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1607,14 +1612,22 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="O27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -1622,26 +1635,46 @@
       <c r="V27" s="5"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="S28" s="5" t="s">
         <v>21</v>
       </c>
@@ -1650,11 +1683,13 @@
       <c r="V28" s="5"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1679,20 +1714,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -1709,6 +1730,20 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
+++ b/Artefatos/23. Matrizes de Rastreabilidade (Características x SSS).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>Origem</t>
   </si>
@@ -122,15 +122,6 @@
     <t>1º processo do DFD Criar orçamento de serviço</t>
   </si>
   <si>
-    <t xml:space="preserve">SSS-0010 O sistema DEVE registrar todos os funcionários, cada um com a sua digital para controle de ponto  </t>
-  </si>
-  <si>
-    <t>SSS-0011 O sistema DEVE oferecer ao supervisor a opção de consulta do controle de ponto dos funcionários</t>
-  </si>
-  <si>
-    <t>* Na lista de necessidade que o cliente solicita? Na declaração do problema? Não há processo para encaixar este requisito, devo cria-lá? (mas funcionários não entraria em uma entidade externa no artefato 15, e sim interna da oficina (tentar tirar está dúvida) "caso contrário ter fé pra que seja algumas que citei"</t>
-  </si>
-  <si>
     <t>SSS-001  O sistema DEVE receber a solicitação de serviço</t>
   </si>
   <si>
@@ -161,49 +152,58 @@
     <t>SSS-009 O sistema DEVE permitir que o Setor Financeiro consulte os lucros e despesas</t>
   </si>
   <si>
-    <t>SSS-0013 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos finalizados</t>
-  </si>
-  <si>
-    <t>SSS-0014 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos pendentes</t>
-  </si>
-  <si>
-    <t>SSS-0015 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento</t>
-  </si>
-  <si>
-    <t>SSS-0016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais propriedade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0017 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior saída </t>
-  </si>
-  <si>
-    <t>SSS-0021 O sistema DEVE registrar nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0020 O sistema DEVE informar se o cliente já consta no banco de dados, se solicitou algum  serviço </t>
-  </si>
-  <si>
-    <t>SSS-0012 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0023 O sistema DEVE calcular o prazo de conserto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0022 O sistema DEVE gerar os lucros e depesas de fechamento de cada mês </t>
-  </si>
-  <si>
-    <t>SSS-0019 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0018 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem menos saída </t>
-  </si>
-  <si>
-    <t>SSS-0024 O sistema DEVE gerar um acesso exclusivo para cada cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSS-0025 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos </t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>SSS-0010 O sistema DEVE consultar os dados do veículo para confirmar se não consta como roubado/furtado antes de executar qualquer ação, migrando para o site do Detran</t>
+  </si>
+  <si>
+    <t>SSS-0011 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos finalizados</t>
+  </si>
+  <si>
+    <t>SSS-0012 O sistema DEVE gerar relatórios dinâmicos com gráficos baseado na quantidade de consertos pendentes</t>
+  </si>
+  <si>
+    <t>SSS-0013 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na quantidade de clientes que pedem orçamento</t>
+  </si>
+  <si>
+    <t>SSS-0014 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em qual serviço é executado com mais propriedade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0015 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem maior saída </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0016 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado em quais peças possuem menos saída </t>
+  </si>
+  <si>
+    <t>SSS-0017 O sistema DEVE gerar  relatórios dinâmicos com gráficos baseado na produtividade de cada funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0018 O sistema DEVE informar se o cliente já consta no banco de dados, se solicitou algum  serviço </t>
+  </si>
+  <si>
+    <t>SSS-0019 O sistema DEVE registrar nos dias de trabalho os horários de entrada, pausa e saída de seus funcionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0020 O sistema DEVE gerar os lucros e depesas de fechamento de cada mês </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0021 O sistema DEVE calcular o prazo de conserto </t>
+  </si>
+  <si>
+    <t>SSS-0022 O sistema DEVE gerar um acesso exclusivo para cada cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSS-0023 O sistema DEVE registar agendamentos com datas e horários para não ocorrer enganos </t>
+  </si>
+  <si>
+    <t>SSS-0024 O sistema DEVE emitir boleto para pagamento do serviço executado.</t>
+  </si>
+  <si>
+    <t>SSS-0025 O sistema DEVE ter calendario anual.</t>
+  </si>
+  <si>
+    <t>SSS-0026 O sistema DEVE ter acesso a calculadora.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,14 +276,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -332,11 +326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,16 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,19 +369,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,38 +685,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -775,11 +779,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -817,9 +821,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -867,7 +871,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -880,7 +884,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -913,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -943,11 +947,11 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -979,9 +983,9 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>21</v>
@@ -1019,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -1057,7 +1061,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1097,11 +1101,11 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1133,9 +1137,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1165,585 +1169,553 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="1" t="s">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
+      <c r="B27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="8">
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A14:A26"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
